--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>267881000</v>
+        <v>269931000</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>256587000</v>
+        <v>277037000</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>524468000</v>
+        <v>546968000</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>449968000</v>
+        <v>468968000</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="AK7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>74500000</v>
+        <v>78000000</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>506268000</v>
+        <v>525268000</v>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,7 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-07-28T16:31:00.000Z</t>
+    <t>2024-07-31T18:24:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -1466,7 +1466,7 @@
         <v>81</v>
       </c>
       <c r="T7">
-        <v>56300000</v>
+        <v>64300000</v>
       </c>
       <c r="U7" t="s">
         <v>82</v>
@@ -1475,7 +1475,7 @@
         <v>81</v>
       </c>
       <c r="W7">
-        <v>286580000</v>
+        <v>332530000</v>
       </c>
       <c r="X7" t="s">
         <v>83</v>
@@ -1487,7 +1487,7 @@
         <v>81</v>
       </c>
       <c r="AA7">
-        <v>343588000</v>
+        <v>376038000</v>
       </c>
       <c r="AB7" t="s">
         <v>84</v>
@@ -1499,7 +1499,7 @@
         <v>81</v>
       </c>
       <c r="AE7">
-        <v>630168000</v>
+        <v>708568000</v>
       </c>
       <c r="AF7" t="s">
         <v>85</v>
@@ -1508,7 +1508,7 @@
         <v>81</v>
       </c>
       <c r="AH7">
-        <v>545168000</v>
+        <v>615568000</v>
       </c>
       <c r="AI7" t="s">
         <v>86</v>
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="AK7">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AL7" t="s">
         <v>87</v>
@@ -1526,7 +1526,7 @@
         <v>81</v>
       </c>
       <c r="AN7">
-        <v>85000000</v>
+        <v>93000000</v>
       </c>
       <c r="AO7" t="s">
         <v>88</v>
@@ -1535,7 +1535,7 @@
         <v>81</v>
       </c>
       <c r="AQ7">
-        <v>601468000</v>
+        <v>679868000</v>
       </c>
       <c r="AR7" t="s">
         <v>89</v>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,7 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-07-31T18:24:00.000Z</t>
+    <t>2024-08-03T03:17:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -1311,7 +1311,7 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>74</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
         <v>77</v>
@@ -1350,7 +1350,7 @@
         <v>81</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="U6" t="s">
         <v>82</v>
@@ -1358,6 +1358,9 @@
       <c r="V6" t="s">
         <v>81</v>
       </c>
+      <c r="W6">
+        <v>9400000</v>
+      </c>
       <c r="X6" t="s">
         <v>83</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>15700000</v>
       </c>
       <c r="AB6" t="s">
         <v>84</v>
@@ -1380,7 +1383,7 @@
         <v>81</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>25100000</v>
       </c>
       <c r="AF6" t="s">
         <v>85</v>
@@ -1388,23 +1391,35 @@
       <c r="AG6" t="s">
         <v>81</v>
       </c>
+      <c r="AH6">
+        <v>25100000</v>
+      </c>
       <c r="AI6" t="s">
         <v>86</v>
       </c>
       <c r="AJ6" t="s">
         <v>81</v>
       </c>
+      <c r="AK6">
+        <v>6</v>
+      </c>
       <c r="AL6" t="s">
         <v>87</v>
       </c>
       <c r="AM6" t="s">
         <v>81</v>
       </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
       <c r="AO6" t="s">
         <v>88</v>
       </c>
       <c r="AP6" t="s">
         <v>81</v>
+      </c>
+      <c r="AQ6">
+        <v>28100000</v>
       </c>
       <c r="AR6" t="s">
         <v>89</v>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,7 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:17:00.000Z</t>
+    <t>2024-08-03T03:28:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,7 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:28:00.000Z</t>
+    <t>2024-08-03T03:54:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,7 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:54:00.000Z</t>
+    <t>2024-08-03T20:14:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -1359,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="W6">
-        <v>9400000</v>
+        <v>14010000</v>
       </c>
       <c r="X6" t="s">
         <v>83</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AA6">
-        <v>15700000</v>
+        <v>69090000</v>
       </c>
       <c r="AB6" t="s">
         <v>84</v>
@@ -1383,7 +1383,7 @@
         <v>81</v>
       </c>
       <c r="AE6">
-        <v>25100000</v>
+        <v>83100000</v>
       </c>
       <c r="AF6" t="s">
         <v>85</v>
@@ -1392,7 +1392,7 @@
         <v>81</v>
       </c>
       <c r="AH6">
-        <v>25100000</v>
+        <v>68100000</v>
       </c>
       <c r="AI6" t="s">
         <v>86</v>
@@ -1401,7 +1401,7 @@
         <v>81</v>
       </c>
       <c r="AK6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL6" t="s">
         <v>87</v>
@@ -1410,7 +1410,7 @@
         <v>81</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="AO6" t="s">
         <v>88</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AQ6">
-        <v>28100000</v>
+        <v>71100000</v>
       </c>
       <c r="AR6" t="s">
         <v>89</v>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="103">
   <si>
     <t>object</t>
   </si>
@@ -199,7 +199,10 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T20:14:00.000Z</t>
+    <t>2024-08-03T21:28:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T21:27:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -856,100 +859,100 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" t="s">
-        <v>74</v>
-      </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -972,100 +975,100 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
         <v>75</v>
       </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1088,100 +1091,100 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" t="s">
         <v>75</v>
       </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1204,100 +1207,100 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1320,115 +1323,115 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" t="s">
-        <v>74</v>
-      </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T6">
         <v>3000000</v>
       </c>
       <c r="U6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6">
         <v>14010000</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA6">
         <v>69090000</v>
       </c>
       <c r="AB6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE6">
         <v>83100000</v>
       </c>
       <c r="AF6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH6">
         <v>68100000</v>
       </c>
       <c r="AI6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK6">
         <v>8</v>
       </c>
       <c r="AL6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN6">
         <v>15000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ6">
         <v>71100000</v>
       </c>
       <c r="AR6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1451,115 +1454,115 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
         <v>75</v>
       </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T7">
         <v>64300000</v>
       </c>
       <c r="U7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W7">
         <v>332530000</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA7">
         <v>376038000</v>
       </c>
       <c r="AB7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE7">
         <v>708568000</v>
       </c>
       <c r="AF7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH7">
         <v>615568000</v>
       </c>
       <c r="AI7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK7">
         <v>93</v>
       </c>
       <c r="AL7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN7">
         <v>93000000</v>
       </c>
       <c r="AO7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ7">
         <v>679868000</v>
       </c>
       <c r="AR7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1582,115 +1585,115 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
         <v>75</v>
       </c>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T8">
         <v>118600000</v>
       </c>
       <c r="U8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W8">
         <v>331227000</v>
       </c>
       <c r="X8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA8">
         <v>748973000</v>
       </c>
       <c r="AB8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE8">
         <v>1080200000</v>
       </c>
       <c r="AF8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH8">
         <v>931300000</v>
       </c>
       <c r="AI8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK8">
         <v>102</v>
       </c>
       <c r="AL8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN8">
         <v>148900000</v>
       </c>
       <c r="AO8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ8">
         <v>1049900000</v>
       </c>
       <c r="AR8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1713,115 +1716,115 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
         <v>75</v>
       </c>
-      <c r="M9" t="s">
-        <v>74</v>
-      </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T9">
         <v>133786000</v>
       </c>
       <c r="U9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W9">
         <v>32577000</v>
       </c>
       <c r="X9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA9">
         <v>407109000</v>
       </c>
       <c r="AB9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE9">
         <v>439686000</v>
       </c>
       <c r="AF9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH9">
         <v>368300000</v>
       </c>
       <c r="AI9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK9">
         <v>46</v>
       </c>
       <c r="AL9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN9">
         <v>71386000</v>
       </c>
       <c r="AO9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ9">
         <v>502086000</v>
       </c>
       <c r="AR9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1835,7 +1838,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1844,115 +1847,115 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
         <v>75</v>
       </c>
-      <c r="M10" t="s">
-        <v>74</v>
-      </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T10">
         <v>232400000</v>
       </c>
       <c r="U10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W10">
         <v>499986000</v>
       </c>
       <c r="X10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA10">
         <v>342764000</v>
       </c>
       <c r="AB10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE10">
         <v>842750000</v>
       </c>
       <c r="AF10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH10">
         <v>783350000</v>
       </c>
       <c r="AI10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK10">
         <v>66</v>
       </c>
       <c r="AL10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN10">
         <v>59400000</v>
       </c>
       <c r="AO10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ10">
         <v>1015750000</v>
       </c>
       <c r="AR10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1966,7 +1969,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1975,115 +1978,115 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" t="s">
         <v>75</v>
       </c>
-      <c r="M11" t="s">
-        <v>74</v>
-      </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T11">
         <v>166100000</v>
       </c>
       <c r="U11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W11">
         <v>323807000</v>
       </c>
       <c r="X11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA11">
         <v>455643000</v>
       </c>
       <c r="AB11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE11">
         <v>779450000</v>
       </c>
       <c r="AF11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH11">
         <v>723950000</v>
       </c>
       <c r="AI11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK11">
         <v>98</v>
       </c>
       <c r="AL11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN11">
         <v>55500000</v>
       </c>
       <c r="AO11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ11">
         <v>890050000</v>
       </c>
       <c r="AR11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2097,7 +2100,7 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2106,115 +2109,115 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" t="s">
         <v>75</v>
       </c>
-      <c r="M12" t="s">
-        <v>74</v>
-      </c>
       <c r="N12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T12">
         <v>49498000</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W12">
         <v>115802000</v>
       </c>
       <c r="X12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA12">
         <v>261993000</v>
       </c>
       <c r="AB12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE12">
         <v>377795000</v>
       </c>
       <c r="AF12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH12">
         <v>349795000</v>
       </c>
       <c r="AI12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK12">
         <v>42</v>
       </c>
       <c r="AL12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN12">
         <v>28000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ12">
         <v>399293000</v>
       </c>
       <c r="AR12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2237,100 +2240,100 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" t="s">
         <v>75</v>
       </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="102">
   <si>
     <t>object</t>
   </si>
@@ -199,10 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T21:28:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T21:27:00.000Z</t>
+    <t>2024-08-09T19:28:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -859,100 +856,100 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
         <v>75</v>
       </c>
-      <c r="L2" t="s">
-        <v>76</v>
-      </c>
       <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
         <v>75</v>
       </c>
-      <c r="N2" t="s">
-        <v>76</v>
-      </c>
       <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
         <v>78</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" t="s">
-        <v>80</v>
-      </c>
       <c r="R2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" t="s">
         <v>83</v>
       </c>
-      <c r="V2" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
         <v>84</v>
       </c>
-      <c r="Y2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
         <v>85</v>
       </c>
-      <c r="AC2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="s">
         <v>87</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" t="s">
         <v>88</v>
       </c>
-      <c r="AM2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR2" t="s">
         <v>89</v>
       </c>
-      <c r="AP2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT2" t="s">
         <v>90</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -975,100 +972,100 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
       <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
         <v>75</v>
       </c>
-      <c r="N3" t="s">
-        <v>76</v>
-      </c>
       <c r="O3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" t="s">
         <v>78</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>79</v>
       </c>
-      <c r="Q3" t="s">
-        <v>80</v>
-      </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>82</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>81</v>
+      </c>
+      <c r="X3" t="s">
         <v>83</v>
       </c>
-      <c r="V3" t="s">
-        <v>82</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
         <v>85</v>
       </c>
-      <c r="AC3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI3" t="s">
         <v>86</v>
       </c>
-      <c r="AG3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL3" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO3" t="s">
         <v>88</v>
       </c>
-      <c r="AM3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR3" t="s">
         <v>89</v>
       </c>
-      <c r="AP3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>90</v>
-      </c>
       <c r="AS3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1091,100 +1088,100 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" t="s">
         <v>75</v>
       </c>
-      <c r="L4" t="s">
-        <v>76</v>
-      </c>
       <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" t="s">
         <v>75</v>
       </c>
-      <c r="N4" t="s">
-        <v>76</v>
-      </c>
       <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
         <v>78</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>79</v>
       </c>
-      <c r="Q4" t="s">
-        <v>80</v>
-      </c>
       <c r="R4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
         <v>82</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" t="s">
         <v>83</v>
       </c>
-      <c r="V4" t="s">
-        <v>82</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
         <v>84</v>
       </c>
-      <c r="Y4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="s">
         <v>85</v>
       </c>
-      <c r="AC4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI4" t="s">
         <v>86</v>
       </c>
-      <c r="AG4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL4" t="s">
         <v>87</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO4" t="s">
         <v>88</v>
       </c>
-      <c r="AM4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR4" t="s">
         <v>89</v>
       </c>
-      <c r="AP4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>90</v>
-      </c>
       <c r="AS4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1207,100 +1204,100 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
       <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s">
         <v>78</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" t="s">
-        <v>80</v>
-      </c>
       <c r="R5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
         <v>82</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
         <v>83</v>
       </c>
-      <c r="V5" t="s">
-        <v>82</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
         <v>85</v>
       </c>
-      <c r="AC5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI5" t="s">
         <v>86</v>
       </c>
-      <c r="AG5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL5" t="s">
         <v>87</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO5" t="s">
         <v>88</v>
       </c>
-      <c r="AM5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="s">
         <v>89</v>
       </c>
-      <c r="AP5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>90</v>
-      </c>
       <c r="AS5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1323,115 +1320,115 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="M6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>77</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>78</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" t="s">
-        <v>80</v>
-      </c>
       <c r="R6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6">
+        <v>39000000</v>
+      </c>
+      <c r="U6" t="s">
         <v>82</v>
       </c>
-      <c r="T6">
-        <v>3000000</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6">
+        <v>73710000</v>
+      </c>
+      <c r="X6" t="s">
         <v>83</v>
       </c>
-      <c r="V6" t="s">
-        <v>82</v>
-      </c>
-      <c r="W6">
-        <v>14010000</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA6">
+        <v>123540000</v>
+      </c>
+      <c r="AB6" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA6">
-        <v>69090000</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE6">
+        <v>197250000</v>
+      </c>
+      <c r="AF6" t="s">
         <v>85</v>
       </c>
-      <c r="AC6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE6">
-        <v>83100000</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH6">
+        <v>166250000</v>
+      </c>
+      <c r="AI6" t="s">
         <v>86</v>
       </c>
-      <c r="AG6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH6">
-        <v>68100000</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK6">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="s">
         <v>87</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK6">
-        <v>8</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN6">
+        <v>31000000</v>
+      </c>
+      <c r="AO6" t="s">
         <v>88</v>
       </c>
-      <c r="AM6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN6">
-        <v>15000000</v>
-      </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ6">
+        <v>205250000</v>
+      </c>
+      <c r="AR6" t="s">
         <v>89</v>
       </c>
-      <c r="AP6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ6">
-        <v>71100000</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>90</v>
-      </c>
       <c r="AS6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1454,115 +1451,115 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
         <v>75</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" t="s">
         <v>76</v>
       </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>77</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>78</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>79</v>
       </c>
-      <c r="Q7" t="s">
-        <v>80</v>
-      </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T7">
         <v>64300000</v>
       </c>
       <c r="U7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W7">
         <v>332530000</v>
       </c>
       <c r="X7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA7">
         <v>376038000</v>
       </c>
       <c r="AB7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE7">
         <v>708568000</v>
       </c>
       <c r="AF7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH7">
         <v>615568000</v>
       </c>
       <c r="AI7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK7">
         <v>93</v>
       </c>
       <c r="AL7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN7">
         <v>93000000</v>
       </c>
       <c r="AO7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ7">
         <v>679868000</v>
       </c>
       <c r="AR7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1585,115 +1582,115 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s">
         <v>75</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" t="s">
         <v>76</v>
       </c>
-      <c r="M8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>77</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>78</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>79</v>
       </c>
-      <c r="Q8" t="s">
-        <v>80</v>
-      </c>
       <c r="R8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T8">
         <v>118600000</v>
       </c>
       <c r="U8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W8">
         <v>331227000</v>
       </c>
       <c r="X8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA8">
         <v>748973000</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE8">
         <v>1080200000</v>
       </c>
       <c r="AF8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH8">
         <v>931300000</v>
       </c>
       <c r="AI8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK8">
         <v>102</v>
       </c>
       <c r="AL8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN8">
         <v>148900000</v>
       </c>
       <c r="AO8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ8">
         <v>1049900000</v>
       </c>
       <c r="AR8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1716,115 +1713,115 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" t="s">
         <v>75</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" t="s">
         <v>76</v>
       </c>
-      <c r="M9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>77</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>78</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" t="s">
-        <v>80</v>
-      </c>
       <c r="R9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T9">
         <v>133786000</v>
       </c>
       <c r="U9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W9">
         <v>32577000</v>
       </c>
       <c r="X9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA9">
         <v>407109000</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE9">
         <v>439686000</v>
       </c>
       <c r="AF9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH9">
         <v>368300000</v>
       </c>
       <c r="AI9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK9">
         <v>46</v>
       </c>
       <c r="AL9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN9">
         <v>71386000</v>
       </c>
       <c r="AO9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ9">
         <v>502086000</v>
       </c>
       <c r="AR9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1838,7 +1835,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1847,115 +1844,115 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" t="s">
         <v>75</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" t="s">
         <v>76</v>
       </c>
-      <c r="M10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>77</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>78</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T10">
         <v>232400000</v>
       </c>
       <c r="U10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W10">
         <v>499986000</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA10">
         <v>342764000</v>
       </c>
       <c r="AB10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE10">
         <v>842750000</v>
       </c>
       <c r="AF10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH10">
         <v>783350000</v>
       </c>
       <c r="AI10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK10">
         <v>66</v>
       </c>
       <c r="AL10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN10">
         <v>59400000</v>
       </c>
       <c r="AO10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ10">
         <v>1015750000</v>
       </c>
       <c r="AR10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1969,7 +1966,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1978,115 +1975,115 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" t="s">
         <v>75</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" t="s">
         <v>76</v>
       </c>
-      <c r="M11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>77</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>78</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>79</v>
       </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T11">
         <v>166100000</v>
       </c>
       <c r="U11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W11">
         <v>323807000</v>
       </c>
       <c r="X11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA11">
         <v>455643000</v>
       </c>
       <c r="AB11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE11">
         <v>779450000</v>
       </c>
       <c r="AF11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH11">
         <v>723950000</v>
       </c>
       <c r="AI11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK11">
         <v>98</v>
       </c>
       <c r="AL11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN11">
         <v>55500000</v>
       </c>
       <c r="AO11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ11">
         <v>890050000</v>
       </c>
       <c r="AR11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2100,7 +2097,7 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2109,115 +2106,115 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" t="s">
         <v>75</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" t="s">
         <v>76</v>
       </c>
-      <c r="M12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>77</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>78</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>79</v>
       </c>
-      <c r="Q12" t="s">
-        <v>80</v>
-      </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T12">
         <v>49498000</v>
       </c>
       <c r="U12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W12">
         <v>115802000</v>
       </c>
       <c r="X12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA12">
         <v>261993000</v>
       </c>
       <c r="AB12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE12">
         <v>377795000</v>
       </c>
       <c r="AF12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH12">
         <v>349795000</v>
       </c>
       <c r="AI12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK12">
         <v>42</v>
       </c>
       <c r="AL12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN12">
         <v>28000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ12">
         <v>399293000</v>
       </c>
       <c r="AR12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2231,7 +2228,7 @@
         <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2240,100 +2237,115 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s">
         <v>74</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>75</v>
       </c>
-      <c r="L13" t="s">
-        <v>76</v>
-      </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13" t="s">
         <v>76</v>
       </c>
       <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s">
         <v>78</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>79</v>
       </c>
-      <c r="Q13" t="s">
-        <v>80</v>
-      </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
+        <v>81</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
         <v>82</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
+        <v>81</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
         <v>83</v>
       </c>
-      <c r="V13" t="s">
-        <v>82</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="s">
         <v>84</v>
       </c>
-      <c r="Y13" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="s">
         <v>85</v>
       </c>
-      <c r="AC13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
         <v>86</v>
       </c>
-      <c r="AG13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="s">
         <v>87</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="s">
         <v>88</v>
       </c>
-      <c r="AM13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="s">
         <v>89</v>
       </c>
-      <c r="AP13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>90</v>
-      </c>
       <c r="AS13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AT13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,7 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-09T19:28:00.000Z</t>
+    <t>2024-08-12T02:00:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -1359,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="W6">
-        <v>73710000</v>
+        <v>100250000</v>
       </c>
       <c r="X6" t="s">
         <v>83</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AA6">
-        <v>123540000</v>
+        <v>110000000</v>
       </c>
       <c r="AB6" t="s">
         <v>84</v>
@@ -1383,7 +1383,7 @@
         <v>81</v>
       </c>
       <c r="AE6">
-        <v>197250000</v>
+        <v>210250000</v>
       </c>
       <c r="AF6" t="s">
         <v>85</v>
@@ -1392,7 +1392,7 @@
         <v>81</v>
       </c>
       <c r="AH6">
-        <v>166250000</v>
+        <v>178250000</v>
       </c>
       <c r="AI6" t="s">
         <v>86</v>
@@ -1401,7 +1401,7 @@
         <v>81</v>
       </c>
       <c r="AK6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="s">
         <v>87</v>
@@ -1410,7 +1410,7 @@
         <v>81</v>
       </c>
       <c r="AN6">
-        <v>31000000</v>
+        <v>32000000</v>
       </c>
       <c r="AO6" t="s">
         <v>88</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AQ6">
-        <v>205250000</v>
+        <v>217250000</v>
       </c>
       <c r="AR6" t="s">
         <v>89</v>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,7 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-12T02:00:00.000Z</t>
+    <t>2024-08-23T13:32:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -1350,7 +1350,7 @@
         <v>81</v>
       </c>
       <c r="T6">
-        <v>39000000</v>
+        <v>105500000</v>
       </c>
       <c r="U6" t="s">
         <v>82</v>
@@ -1359,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="W6">
-        <v>100250000</v>
+        <v>174225000</v>
       </c>
       <c r="X6" t="s">
         <v>83</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AA6">
-        <v>110000000</v>
+        <v>234025000</v>
       </c>
       <c r="AB6" t="s">
         <v>84</v>
@@ -1383,7 +1383,7 @@
         <v>81</v>
       </c>
       <c r="AE6">
-        <v>210250000</v>
+        <v>408250000</v>
       </c>
       <c r="AF6" t="s">
         <v>85</v>
@@ -1392,7 +1392,7 @@
         <v>81</v>
       </c>
       <c r="AH6">
-        <v>178250000</v>
+        <v>342250000</v>
       </c>
       <c r="AI6" t="s">
         <v>86</v>
@@ -1401,7 +1401,7 @@
         <v>81</v>
       </c>
       <c r="AK6">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="AL6" t="s">
         <v>87</v>
@@ -1410,7 +1410,7 @@
         <v>81</v>
       </c>
       <c r="AN6">
-        <v>32000000</v>
+        <v>66000000</v>
       </c>
       <c r="AO6" t="s">
         <v>88</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AQ6">
-        <v>217250000</v>
+        <v>447750000</v>
       </c>
       <c r="AR6" t="s">
         <v>89</v>
@@ -2136,7 +2136,7 @@
         <v>81</v>
       </c>
       <c r="T12">
-        <v>49498000</v>
+        <v>43498000</v>
       </c>
       <c r="U12" t="s">
         <v>82</v>
@@ -2157,7 +2157,7 @@
         <v>81</v>
       </c>
       <c r="AA12">
-        <v>261993000</v>
+        <v>255493000</v>
       </c>
       <c r="AB12" t="s">
         <v>84</v>
@@ -2169,7 +2169,7 @@
         <v>81</v>
       </c>
       <c r="AE12">
-        <v>377795000</v>
+        <v>371295000</v>
       </c>
       <c r="AF12" t="s">
         <v>85</v>
@@ -2178,7 +2178,7 @@
         <v>81</v>
       </c>
       <c r="AH12">
-        <v>349795000</v>
+        <v>343295000</v>
       </c>
       <c r="AI12" t="s">
         <v>86</v>
@@ -2187,7 +2187,7 @@
         <v>81</v>
       </c>
       <c r="AK12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="s">
         <v>87</v>
@@ -2205,7 +2205,7 @@
         <v>81</v>
       </c>
       <c r="AQ12">
-        <v>399293000</v>
+        <v>386793000</v>
       </c>
       <c r="AR12" t="s">
         <v>89</v>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,7 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-23T13:32:00.000Z</t>
+    <t>2024-08-24T20:33:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -1350,7 +1350,7 @@
         <v>81</v>
       </c>
       <c r="T6">
-        <v>105500000</v>
+        <v>104000000</v>
       </c>
       <c r="U6" t="s">
         <v>82</v>
@@ -1359,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="W6">
-        <v>174225000</v>
+        <v>187715000</v>
       </c>
       <c r="X6" t="s">
         <v>83</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AA6">
-        <v>234025000</v>
+        <v>277735000</v>
       </c>
       <c r="AB6" t="s">
         <v>84</v>
@@ -1383,7 +1383,7 @@
         <v>81</v>
       </c>
       <c r="AE6">
-        <v>408250000</v>
+        <v>465450000</v>
       </c>
       <c r="AF6" t="s">
         <v>85</v>
@@ -1392,7 +1392,7 @@
         <v>81</v>
       </c>
       <c r="AH6">
-        <v>342250000</v>
+        <v>377450000</v>
       </c>
       <c r="AI6" t="s">
         <v>86</v>
@@ -1401,7 +1401,7 @@
         <v>81</v>
       </c>
       <c r="AK6">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AL6" t="s">
         <v>87</v>
@@ -1410,7 +1410,7 @@
         <v>81</v>
       </c>
       <c r="AN6">
-        <v>66000000</v>
+        <v>88000000</v>
       </c>
       <c r="AO6" t="s">
         <v>88</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AQ6">
-        <v>447750000</v>
+        <v>481450000</v>
       </c>
       <c r="AR6" t="s">
         <v>89</v>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,7 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-24T20:33:00.000Z</t>
+    <t>2024-08-26T17:26:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -1350,7 +1350,7 @@
         <v>81</v>
       </c>
       <c r="T6">
-        <v>104000000</v>
+        <v>118000000</v>
       </c>
       <c r="U6" t="s">
         <v>82</v>
@@ -1359,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="W6">
-        <v>187715000</v>
+        <v>198433000</v>
       </c>
       <c r="X6" t="s">
         <v>83</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AA6">
-        <v>277735000</v>
+        <v>303617000</v>
       </c>
       <c r="AB6" t="s">
         <v>84</v>
@@ -1383,7 +1383,7 @@
         <v>81</v>
       </c>
       <c r="AE6">
-        <v>465450000</v>
+        <v>502050000</v>
       </c>
       <c r="AF6" t="s">
         <v>85</v>
@@ -1392,7 +1392,7 @@
         <v>81</v>
       </c>
       <c r="AH6">
-        <v>377450000</v>
+        <v>413050000</v>
       </c>
       <c r="AI6" t="s">
         <v>86</v>
@@ -1401,7 +1401,7 @@
         <v>81</v>
       </c>
       <c r="AK6">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AL6" t="s">
         <v>87</v>
@@ -1410,7 +1410,7 @@
         <v>81</v>
       </c>
       <c r="AN6">
-        <v>88000000</v>
+        <v>89000000</v>
       </c>
       <c r="AO6" t="s">
         <v>88</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AQ6">
-        <v>481450000</v>
+        <v>531050000</v>
       </c>
       <c r="AR6" t="s">
         <v>89</v>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,7 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-26T17:26:00.000Z</t>
+    <t>2024-08-27T12:15:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -1350,7 +1350,7 @@
         <v>81</v>
       </c>
       <c r="T6">
-        <v>118000000</v>
+        <v>130000000</v>
       </c>
       <c r="U6" t="s">
         <v>82</v>
@@ -1359,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="W6">
-        <v>198433000</v>
+        <v>199390000</v>
       </c>
       <c r="X6" t="s">
         <v>83</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AA6">
-        <v>303617000</v>
+        <v>310160000</v>
       </c>
       <c r="AB6" t="s">
         <v>84</v>
@@ -1383,7 +1383,7 @@
         <v>81</v>
       </c>
       <c r="AE6">
-        <v>502050000</v>
+        <v>509550000</v>
       </c>
       <c r="AF6" t="s">
         <v>85</v>
@@ -1392,7 +1392,7 @@
         <v>81</v>
       </c>
       <c r="AH6">
-        <v>413050000</v>
+        <v>420550000</v>
       </c>
       <c r="AI6" t="s">
         <v>86</v>
@@ -1401,7 +1401,7 @@
         <v>81</v>
       </c>
       <c r="AK6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AL6" t="s">
         <v>87</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AQ6">
-        <v>531050000</v>
+        <v>550550000</v>
       </c>
       <c r="AR6" t="s">
         <v>89</v>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,7 +199,7 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-27T12:15:00.000Z</t>
+    <t>2024-08-28T15:04:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -1350,7 +1350,7 @@
         <v>81</v>
       </c>
       <c r="T6">
-        <v>130000000</v>
+        <v>131500000</v>
       </c>
       <c r="U6" t="s">
         <v>82</v>
@@ -1359,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="W6">
-        <v>199390000</v>
+        <v>198740000</v>
       </c>
       <c r="X6" t="s">
         <v>83</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AA6">
-        <v>310160000</v>
+        <v>376810000</v>
       </c>
       <c r="AB6" t="s">
         <v>84</v>
@@ -1383,7 +1383,7 @@
         <v>81</v>
       </c>
       <c r="AE6">
-        <v>509550000</v>
+        <v>575550000</v>
       </c>
       <c r="AF6" t="s">
         <v>85</v>
@@ -1392,7 +1392,7 @@
         <v>81</v>
       </c>
       <c r="AH6">
-        <v>420550000</v>
+        <v>486550000</v>
       </c>
       <c r="AI6" t="s">
         <v>86</v>
@@ -1401,7 +1401,7 @@
         <v>81</v>
       </c>
       <c r="AK6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AL6" t="s">
         <v>87</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AQ6">
-        <v>550550000</v>
+        <v>618050000</v>
       </c>
       <c r="AR6" t="s">
         <v>89</v>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="103">
   <si>
     <t>object</t>
   </si>
@@ -199,7 +199,10 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-28T15:04:00.000Z</t>
+    <t>2024-08-30T20:18:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-30T20:17:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -856,100 +859,100 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" t="s">
-        <v>74</v>
-      </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -972,100 +975,100 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
         <v>75</v>
       </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1088,100 +1091,100 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" t="s">
         <v>75</v>
       </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1204,100 +1207,100 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1320,115 +1323,115 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" t="s">
-        <v>74</v>
-      </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T6">
         <v>131500000</v>
       </c>
       <c r="U6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6">
-        <v>198740000</v>
+        <v>247011000</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA6">
-        <v>376810000</v>
+        <v>375889000</v>
       </c>
       <c r="AB6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE6">
-        <v>575550000</v>
+        <v>622900000</v>
       </c>
       <c r="AF6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH6">
-        <v>486550000</v>
+        <v>525700000</v>
       </c>
       <c r="AI6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK6">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN6">
-        <v>89000000</v>
+        <v>97200000</v>
       </c>
       <c r="AO6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ6">
-        <v>618050000</v>
+        <v>657200000</v>
       </c>
       <c r="AR6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1451,115 +1454,115 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
         <v>75</v>
       </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T7">
         <v>64300000</v>
       </c>
       <c r="U7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W7">
         <v>332530000</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA7">
         <v>376038000</v>
       </c>
       <c r="AB7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE7">
         <v>708568000</v>
       </c>
       <c r="AF7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH7">
         <v>615568000</v>
       </c>
       <c r="AI7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK7">
         <v>93</v>
       </c>
       <c r="AL7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN7">
         <v>93000000</v>
       </c>
       <c r="AO7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ7">
         <v>679868000</v>
       </c>
       <c r="AR7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1573,7 +1576,7 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1582,115 +1585,115 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
         <v>75</v>
       </c>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T8">
         <v>118600000</v>
       </c>
       <c r="U8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W8">
         <v>331227000</v>
       </c>
       <c r="X8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA8">
         <v>748973000</v>
       </c>
       <c r="AB8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE8">
         <v>1080200000</v>
       </c>
       <c r="AF8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH8">
         <v>931300000</v>
       </c>
       <c r="AI8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK8">
         <v>102</v>
       </c>
       <c r="AL8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN8">
         <v>148900000</v>
       </c>
       <c r="AO8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ8">
         <v>1049900000</v>
       </c>
       <c r="AR8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1704,7 +1707,7 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1713,115 +1716,115 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
         <v>75</v>
       </c>
-      <c r="M9" t="s">
-        <v>74</v>
-      </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T9">
         <v>133786000</v>
       </c>
       <c r="U9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W9">
         <v>32577000</v>
       </c>
       <c r="X9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA9">
         <v>407109000</v>
       </c>
       <c r="AB9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE9">
         <v>439686000</v>
       </c>
       <c r="AF9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH9">
         <v>368300000</v>
       </c>
       <c r="AI9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK9">
         <v>46</v>
       </c>
       <c r="AL9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN9">
         <v>71386000</v>
       </c>
       <c r="AO9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ9">
         <v>502086000</v>
       </c>
       <c r="AR9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1835,7 +1838,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1844,115 +1847,115 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
         <v>75</v>
       </c>
-      <c r="M10" t="s">
-        <v>74</v>
-      </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T10">
         <v>232400000</v>
       </c>
       <c r="U10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W10">
         <v>499986000</v>
       </c>
       <c r="X10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA10">
         <v>342764000</v>
       </c>
       <c r="AB10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE10">
         <v>842750000</v>
       </c>
       <c r="AF10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH10">
         <v>783350000</v>
       </c>
       <c r="AI10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK10">
         <v>66</v>
       </c>
       <c r="AL10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN10">
         <v>59400000</v>
       </c>
       <c r="AO10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ10">
         <v>1015750000</v>
       </c>
       <c r="AR10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1966,7 +1969,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1975,115 +1978,115 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" t="s">
         <v>75</v>
       </c>
-      <c r="M11" t="s">
-        <v>74</v>
-      </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T11">
         <v>166100000</v>
       </c>
       <c r="U11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W11">
         <v>323807000</v>
       </c>
       <c r="X11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA11">
         <v>455643000</v>
       </c>
       <c r="AB11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE11">
         <v>779450000</v>
       </c>
       <c r="AF11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH11">
         <v>723950000</v>
       </c>
       <c r="AI11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK11">
         <v>98</v>
       </c>
       <c r="AL11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN11">
         <v>55500000</v>
       </c>
       <c r="AO11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ11">
         <v>890050000</v>
       </c>
       <c r="AR11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2097,7 +2100,7 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2106,115 +2109,115 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" t="s">
         <v>75</v>
       </c>
-      <c r="M12" t="s">
-        <v>74</v>
-      </c>
       <c r="N12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T12">
         <v>43498000</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W12">
         <v>115802000</v>
       </c>
       <c r="X12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA12">
         <v>255493000</v>
       </c>
       <c r="AB12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE12">
         <v>371295000</v>
       </c>
       <c r="AF12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH12">
         <v>343295000</v>
       </c>
       <c r="AI12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK12">
         <v>41</v>
       </c>
       <c r="AL12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN12">
         <v>28000000</v>
       </c>
       <c r="AO12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ12">
         <v>386793000</v>
       </c>
       <c r="AR12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2228,7 +2231,7 @@
         <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2237,115 +2240,115 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" t="s">
         <v>75</v>
       </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH13">
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK13">
         <v>1</v>
       </c>
       <c r="AL13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
       <c r="AO13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ13">
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AS13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,10 +199,10 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-30T20:18:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-30T20:17:00.000Z</t>
+    <t>2024-08-31T05:40:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T05:43:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -1576,7 +1576,7 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>

--- a/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
+++ b/Notion data/Lũy kế tháng HỆ THỐNG.xlsx
@@ -199,10 +199,10 @@
     <t>2024-06-26T03:04:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-31T05:40:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-31T05:43:00.000Z</t>
+    <t>2024-08-31T15:46:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T15:45:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-12-f3004d81de1f4e7c8f862ec6c754c671</t>
@@ -1353,7 +1353,7 @@
         <v>82</v>
       </c>
       <c r="T6">
-        <v>131500000</v>
+        <v>143500000</v>
       </c>
       <c r="U6" t="s">
         <v>83</v>
@@ -1362,7 +1362,7 @@
         <v>82</v>
       </c>
       <c r="W6">
-        <v>247011000</v>
+        <v>253041000</v>
       </c>
       <c r="X6" t="s">
         <v>84</v>
@@ -1374,7 +1374,7 @@
         <v>82</v>
       </c>
       <c r="AA6">
-        <v>375889000</v>
+        <v>379659000</v>
       </c>
       <c r="AB6" t="s">
         <v>85</v>
@@ -1386,7 +1386,7 @@
         <v>82</v>
       </c>
       <c r="AE6">
-        <v>622900000</v>
+        <v>632700000</v>
       </c>
       <c r="AF6" t="s">
         <v>86</v>
@@ -1395,7 +1395,7 @@
         <v>82</v>
       </c>
       <c r="AH6">
-        <v>525700000</v>
+        <v>535500000</v>
       </c>
       <c r="AI6" t="s">
         <v>87</v>
@@ -1404,7 +1404,7 @@
         <v>82</v>
       </c>
       <c r="AK6">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s">
         <v>88</v>
@@ -1422,7 +1422,7 @@
         <v>82</v>
       </c>
       <c r="AQ6">
-        <v>657200000</v>
+        <v>679000000</v>
       </c>
       <c r="AR6" t="s">
         <v>90</v>
@@ -1838,7 +1838,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
